--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3255.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3255.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.667183971115341</v>
+        <v>0.8394890427589417</v>
       </c>
       <c r="B1">
-        <v>1.772725303167603</v>
+        <v>3.351017475128174</v>
       </c>
       <c r="C1">
-        <v>1.930714232426112</v>
+        <v>2.451785802841187</v>
       </c>
       <c r="D1">
-        <v>2.818299780770533</v>
+        <v>2.151190996170044</v>
       </c>
       <c r="E1">
-        <v>3.690616528718333</v>
+        <v>1.84245240688324</v>
       </c>
     </row>
   </sheetData>
